--- a/output/CSHG_31525221000107.xlsx
+++ b/output/CSHG_31525221000107.xlsx
@@ -493,10 +493,10 @@
         <v>44165</v>
       </c>
       <c r="B10">
-        <v>0.1139766</v>
+        <v>0.1143779</v>
       </c>
       <c r="C10">
-        <v>-0.05366269961212944</v>
+        <v>-0.05332179015438521</v>
       </c>
     </row>
   </sheetData>

--- a/output/CSHG_31525221000107.xlsx
+++ b/output/CSHG_31525221000107.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>CSHG MASTER GOLD ATIVO II FUNDO DE INVESTIMENTO MULTIMERCADO - CREDITO PRIVADO INVESTIMENTO NO EXTER</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,117 +383,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>43921</v>
       </c>
       <c r="B2">
-        <v>-0.05783859999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>43951</v>
       </c>
       <c r="B3">
-        <v>0.04157619999999995</v>
-      </c>
-      <c r="C3">
         <v>0.1055178019392431</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>43982</v>
       </c>
       <c r="B4">
-        <v>0.05190840000000008</v>
-      </c>
-      <c r="C4">
         <v>0.009919773512490071</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>44012</v>
       </c>
       <c r="B5">
-        <v>0.06271340000000003</v>
-      </c>
-      <c r="C5">
         <v>0.01027180693680174</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>44043</v>
       </c>
       <c r="B6">
-        <v>0.1401642000000001</v>
-      </c>
-      <c r="C6">
         <v>0.07288023280782951</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>44074</v>
       </c>
       <c r="B7">
-        <v>0.1787798</v>
-      </c>
-      <c r="C7">
         <v>0.03386845508743397</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>44104</v>
       </c>
       <c r="B8">
-        <v>0.1641834</v>
-      </c>
-      <c r="C8">
         <v>-0.01238263499255765</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>44135</v>
       </c>
       <c r="B9">
-        <v>0.1771453999999999</v>
-      </c>
-      <c r="C9">
         <v>0.01113398455947734</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>44165</v>
       </c>
       <c r="B10">
-        <v>0.1143779</v>
-      </c>
-      <c r="C10">
-        <v>-0.05332179015438521</v>
+        <v>-0.04382984463941331</v>
       </c>
     </row>
   </sheetData>
